--- a/src/test/resources/addSelection/addSelectionNotExist.xlsx
+++ b/src/test/resources/addSelection/addSelectionNotExist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\addselection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\addSelection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586D0C07-35E7-4480-88FC-74E8DA78F67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AFC8A6-5DD0-409D-AD12-AD5D9ED177A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -746,7 +746,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/src/test/resources/addSelection/addSelectionNotExist.xlsx
+++ b/src/test/resources/addSelection/addSelectionNotExist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\addSelection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AFC8A6-5DD0-409D-AD12-AD5D9ED177A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9305CE68-BA39-401E-A477-D9298C188F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -82,207 +82,85 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>${company1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${company2}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wait</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"value":"download/2.json"}</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF871094"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"target"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"json"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <t>xpath</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>=//div[@class='contextual'][.//a[@accesskey='e']]//a[contains(text(),'編集')]</t>
     </r>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${company1}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${company2}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>wait</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>aaaaa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"json"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"file"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"C:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0037A6"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>Users</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0037A6"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>xihu_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0037A6"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>Desktop</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0037A6"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>2.json"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>}</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -313,65 +191,71 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF080808"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF871094"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF067D17"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <u/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF080808"/>
-      <name val="Sarasa Mono CL"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF871094"/>
-      <name val="Sarasa Mono CL"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF067D17"/>
-      <name val="Sarasa Mono CL"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0037A6"/>
-      <name val="Sarasa Mono CL"/>
-      <family val="3"/>
-      <charset val="136"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -383,10 +267,130 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="hair">
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -403,30 +407,60 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -745,141 +779,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>20</v>
+      <c r="M1" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:13" ht="42.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="6">
+      <c r="L3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="13">
         <v>2000</v>
       </c>
     </row>

--- a/src/test/resources/addSelection/addSelectionNotExist.xlsx
+++ b/src/test/resources/addSelection/addSelectionNotExist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\addSelection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\github\auto-test\src\test\resources\addSelection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9305CE68-BA39-401E-A477-D9298C188F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A93FB71-D0C5-4E58-8484-A3122EEAAE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>open</t>
   </si>
@@ -29,137 +29,33 @@
   </si>
   <si>
     <t>945x1012</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>id=password</t>
-  </si>
-  <si>
-    <t>sendKeys</t>
-  </si>
-  <si>
-    <t>${KEY_ENTER}</t>
-  </si>
-  <si>
-    <t>readProperties</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${name}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${password}</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>TestCase</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://task.hugang.io/login</t>
+    <t>addSelection</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>{"url": "http://localhost:9001/addSelection/", "skip": false}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>id=username</t>
+    <t>{"target": "xpath=//*[@id='pets']"}</t>
+  </si>
+  <si>
+    <t>{"value": "cat"}</t>
+  </si>
+  <si>
+    <t>{"value": "dog"}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://task.hugang.io/issues/1</t>
-  </si>
-  <si>
-    <t>click</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>addSelection</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>xpath=//*[@id='issue_custom_field_values_31']</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${company1}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${company2}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>wait</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>aaaaa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"value":"download/2.json"}</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF871094"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"target"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF080808"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"json"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF080808"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>xpath</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>=//div[@class='contextual'][.//a[@accesskey='e']]//a[contains(text(),'編集')]</t>
-    </r>
+    <t>baby</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -167,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -180,14 +76,6 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,36 +94,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF080808"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF871094"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF067D17"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -255,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -294,13 +153,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="hair">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
@@ -318,7 +192,7 @@
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -333,138 +207,50 @@
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -777,151 +563,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.25" style="1"/>
+    <col min="2" max="2" width="53.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="42.75" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="10">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11">
-        <v>1</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="13">
+      <c r="G3" s="9">
         <v>2000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{D2D44D75-9706-4068-9E9A-16731AF950C6}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>